--- a/relatorios/repasses_liberados/dentistas/21477833315/2023-08-25_relatorio_repasses_21477833315.xlsx
+++ b/relatorios/repasses_liberados/dentistas/21477833315/2023-08-25_relatorio_repasses_21477833315.xlsx
@@ -2310,10 +2310,10 @@
         <v>1</v>
       </c>
       <c r="M39">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N39">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:14">

--- a/relatorios/repasses_liberados/dentistas/21477833315/2023-08-25_relatorio_repasses_21477833315.xlsx
+++ b/relatorios/repasses_liberados/dentistas/21477833315/2023-08-25_relatorio_repasses_21477833315.xlsx
@@ -726,10 +726,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N3">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -770,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -814,10 +814,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1122,10 +1122,10 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1342,10 +1342,10 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N17">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1562,10 +1562,10 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N22">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1738,10 +1738,10 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1782,10 +1782,10 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N27">
-        <v>27.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1958,10 +1958,10 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N31">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2046,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2090,10 +2090,10 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N34">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2178,10 +2178,10 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N36">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2222,10 +2222,10 @@
         <v>0.111111</v>
       </c>
       <c r="M37">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N37">
-        <v>0.444444</v>
+        <v>0.333333</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2266,10 +2266,10 @@
         <v>1</v>
       </c>
       <c r="M38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N38">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2310,10 +2310,10 @@
         <v>1</v>
       </c>
       <c r="M39">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N39">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2486,10 +2486,10 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N43">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2530,10 +2530,10 @@
         <v>0.1</v>
       </c>
       <c r="M44">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N44">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2618,10 +2618,10 @@
         <v>1</v>
       </c>
       <c r="M46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N46">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2662,10 +2662,10 @@
         <v>1</v>
       </c>
       <c r="M47">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N47">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2882,10 +2882,10 @@
         <v>1</v>
       </c>
       <c r="M52">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N52">
-        <v>29.6</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2970,10 +2970,10 @@
         <v>1</v>
       </c>
       <c r="M54">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N54">
-        <v>50</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="55" spans="1:14">
